--- a/실행시간 측정.xlsx
+++ b/실행시간 측정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DGU\2-1학기\계산적 사고법\N-queen분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F32176D-02C6-4164-AD2F-627CE7902E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D4953-EE1D-47A4-9282-5B357AE2DEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9093A6CA-1003-4723-8CBD-3E37B711AD9E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>Bitwise 해법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,20 +435,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C2C6B7-00F0-4AE1-B3CF-CDC8289F3A19}">
-  <dimension ref="B3:T13"/>
+  <dimension ref="A3:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -474,7 +489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -512,12 +527,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -570,7 +588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -623,12 +641,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -687,7 +708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -744,6 +765,108 @@
       </c>
       <c r="T13">
         <v>59.098999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>11</v>
+      </c>
+      <c r="O17">
+        <v>12</v>
+      </c>
+      <c r="P17">
+        <v>13</v>
+      </c>
+      <c r="Q17">
+        <v>14</v>
+      </c>
+      <c r="R17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.08</v>
+      </c>
+      <c r="E18">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F18">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H18">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I18">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="K18">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="L18">
+        <v>3.3239999999999998</v>
+      </c>
+      <c r="M18">
+        <v>10.144</v>
+      </c>
+      <c r="N18">
+        <v>51.063000000000002</v>
+      </c>
+      <c r="O18" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
